--- a/output/severity_by_admin_and_pop_group.xlsx
+++ b/output/severity_by_admin_and_pop_group.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/pin-calculation-app/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_0670FE09CE46C6BD860F96107676E53B25D8430B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Host Community" sheetId="1" r:id="rId1"/>
     <sheet name="New IDPs" sheetId="2" r:id="rId2"/>
     <sheet name="Protracted IDPs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -168,8 +162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,21 +226,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -284,7 +270,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -318,7 +304,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -353,10 +338,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -529,16 +513,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -608,13 +590,13 @@
         <v>0.35</v>
       </c>
       <c r="F2">
-        <v>35.700000000000003</v>
+        <v>35704.4</v>
       </c>
       <c r="G2">
         <v>0.25</v>
       </c>
       <c r="H2">
-        <v>25.7</v>
+        <v>25747.4</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -626,22 +608,22 @@
         <v>0.4</v>
       </c>
       <c r="L2">
-        <v>40.700000000000003</v>
+        <v>40748.2</v>
       </c>
       <c r="M2">
         <v>0.65</v>
       </c>
       <c r="N2">
-        <v>66.5</v>
+        <v>66495.60000000001</v>
       </c>
       <c r="O2" t="s">
         <v>42</v>
       </c>
       <c r="P2">
-        <v>102.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.75">
+        <v>102200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -658,13 +640,13 @@
         <v>0.35</v>
       </c>
       <c r="F3">
-        <v>120.8</v>
+        <v>120849.3</v>
       </c>
       <c r="G3">
         <v>0.6</v>
       </c>
       <c r="H3">
-        <v>209.5</v>
+        <v>209467.8</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -676,22 +658,22 @@
         <v>0.06</v>
       </c>
       <c r="L3">
-        <v>19.7</v>
+        <v>19682.8</v>
       </c>
       <c r="M3">
         <v>0.65</v>
       </c>
       <c r="N3">
-        <v>229.2</v>
+        <v>229150.7</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
       </c>
       <c r="P3">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.75">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -708,19 +690,19 @@
         <v>0.41</v>
       </c>
       <c r="F4">
-        <v>39.200000000000003</v>
+        <v>39175.1</v>
       </c>
       <c r="G4">
         <v>0.47</v>
       </c>
       <c r="H4">
-        <v>44.2</v>
+        <v>44227.7</v>
       </c>
       <c r="I4">
         <v>0.12</v>
       </c>
       <c r="J4">
-        <v>11.1</v>
+        <v>11097.1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -732,16 +714,16 @@
         <v>0.59</v>
       </c>
       <c r="N4">
-        <v>55.3</v>
+        <v>55324.9</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
       </c>
       <c r="P4">
-        <v>94.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.75">
+        <v>94500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -758,19 +740,19 @@
         <v>0.19</v>
       </c>
       <c r="F5">
-        <v>17.8</v>
+        <v>17763.7</v>
       </c>
       <c r="G5">
         <v>0.71</v>
       </c>
       <c r="H5">
-        <v>65.900000000000006</v>
+        <v>65871.2</v>
       </c>
       <c r="I5">
         <v>0.09</v>
       </c>
       <c r="J5">
-        <v>8.8000000000000007</v>
+        <v>8765.1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -779,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N5">
-        <v>74.599999999999994</v>
+        <v>74636.3</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
       </c>
       <c r="P5">
-        <v>92.399999999999991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.75">
+        <v>92400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -808,40 +790,40 @@
         <v>0.65</v>
       </c>
       <c r="F6">
-        <v>61.7</v>
+        <v>61722.7</v>
       </c>
       <c r="G6">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="H6">
-        <v>26.6</v>
+        <v>26632.4</v>
       </c>
       <c r="I6">
         <v>0.06</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>5995.7</v>
       </c>
       <c r="K6">
         <v>0.01</v>
       </c>
       <c r="L6">
-        <v>0.8</v>
+        <v>849.2</v>
       </c>
       <c r="M6">
         <v>0.35</v>
       </c>
       <c r="N6">
-        <v>33.5</v>
+        <v>33477.3</v>
       </c>
       <c r="O6" t="s">
         <v>43</v>
       </c>
       <c r="P6">
-        <v>95.199999999999989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
+        <v>95200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -858,19 +840,19 @@
         <v>0.61</v>
       </c>
       <c r="F7">
-        <v>64.8</v>
+        <v>64823.5</v>
       </c>
       <c r="G7">
         <v>0.35</v>
       </c>
       <c r="H7">
-        <v>37.200000000000003</v>
+        <v>37196.8</v>
       </c>
       <c r="I7">
         <v>0.03</v>
       </c>
       <c r="J7">
-        <v>3.7</v>
+        <v>3679.6</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -882,16 +864,16 @@
         <v>0.39</v>
       </c>
       <c r="N7">
-        <v>40.9</v>
+        <v>40876.5</v>
       </c>
       <c r="O7" t="s">
         <v>43</v>
       </c>
       <c r="P7">
-        <v>105.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.75">
+        <v>105700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -908,19 +890,19 @@
         <v>0.03</v>
       </c>
       <c r="F8">
-        <v>2.7</v>
+        <v>2697.2</v>
       </c>
       <c r="G8">
         <v>0.93</v>
       </c>
       <c r="H8">
-        <v>90.8</v>
+        <v>90833.89999999999</v>
       </c>
       <c r="I8">
         <v>0.05</v>
       </c>
       <c r="J8">
-        <v>4.5</v>
+        <v>4468.9</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -932,16 +914,16 @@
         <v>0.97</v>
       </c>
       <c r="N8">
-        <v>95.3</v>
+        <v>95302.8</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
       </c>
       <c r="P8">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.75">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -958,40 +940,40 @@
         <v>0.3</v>
       </c>
       <c r="F9">
-        <v>28.2</v>
+        <v>28241.7</v>
       </c>
       <c r="G9">
         <v>0.61</v>
       </c>
       <c r="H9">
-        <v>57</v>
+        <v>57011.8</v>
       </c>
       <c r="I9">
         <v>0.05</v>
       </c>
       <c r="J9">
-        <v>4.9000000000000004</v>
+        <v>4874.9</v>
       </c>
       <c r="K9">
         <v>0.03</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>2971.6</v>
       </c>
       <c r="M9">
         <v>0.7</v>
       </c>
       <c r="N9">
-        <v>64.900000000000006</v>
+        <v>64858.3</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
       <c r="P9">
-        <v>93.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.75">
+        <v>93100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1008,40 +990,40 @@
         <v>0.42</v>
       </c>
       <c r="F10">
-        <v>29.4</v>
+        <v>29402.9</v>
       </c>
       <c r="G10">
         <v>0.45</v>
       </c>
       <c r="H10">
-        <v>31.2</v>
+        <v>31151.5</v>
       </c>
       <c r="I10">
         <v>0.12</v>
       </c>
       <c r="J10">
-        <v>8.5</v>
+        <v>8515.700000000001</v>
       </c>
       <c r="K10">
         <v>0.01</v>
       </c>
       <c r="L10">
-        <v>0.9</v>
+        <v>929.9</v>
       </c>
       <c r="M10">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="N10">
-        <v>40.6</v>
+        <v>40597.1</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
       </c>
       <c r="P10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.75">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1058,40 +1040,40 @@
         <v>0.53</v>
       </c>
       <c r="F11">
-        <v>48.5</v>
+        <v>48454.9</v>
       </c>
       <c r="G11">
         <v>0.44</v>
       </c>
       <c r="H11">
-        <v>40.4</v>
+        <v>40411.7</v>
       </c>
       <c r="I11">
         <v>0.02</v>
       </c>
       <c r="J11">
-        <v>1.7</v>
+        <v>1736.8</v>
       </c>
       <c r="K11">
         <v>0.01</v>
       </c>
       <c r="L11">
-        <v>1.1000000000000001</v>
+        <v>1096.5</v>
       </c>
       <c r="M11">
         <v>0.47</v>
       </c>
       <c r="N11">
-        <v>43.2</v>
+        <v>43245.1</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
       </c>
       <c r="P11">
-        <v>91.699999999999989</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.75">
+        <v>91700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1108,19 +1090,19 @@
         <v>0.77</v>
       </c>
       <c r="F12">
-        <v>81.3</v>
+        <v>81274.89999999999</v>
       </c>
       <c r="G12">
         <v>0.22</v>
       </c>
       <c r="H12">
-        <v>22.6</v>
+        <v>22630.4</v>
       </c>
       <c r="I12">
         <v>0.01</v>
       </c>
       <c r="J12">
-        <v>1.1000000000000001</v>
+        <v>1094.7</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1132,16 +1114,16 @@
         <v>0.23</v>
       </c>
       <c r="N12">
-        <v>23.7</v>
+        <v>23725.1</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
       </c>
       <c r="P12">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.75">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1158,19 +1140,19 @@
         <v>0.12</v>
       </c>
       <c r="F13">
-        <v>12.2</v>
+        <v>12150.1</v>
       </c>
       <c r="G13">
         <v>0.85</v>
       </c>
       <c r="H13">
-        <v>85</v>
+        <v>84958.5</v>
       </c>
       <c r="I13">
         <v>0.03</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>2991.4</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1182,16 +1164,16 @@
         <v>0.88</v>
       </c>
       <c r="N13">
-        <v>87.9</v>
+        <v>87949.89999999999</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
       <c r="P13">
-        <v>100.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.75">
+        <v>100100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1208,19 +1190,19 @@
         <v>0.64</v>
       </c>
       <c r="F14">
-        <v>67</v>
+        <v>66995.39999999999</v>
       </c>
       <c r="G14">
         <v>0.32</v>
       </c>
       <c r="H14">
-        <v>33.5</v>
+        <v>33543.6</v>
       </c>
       <c r="I14">
         <v>0.04</v>
       </c>
       <c r="J14">
-        <v>4.5</v>
+        <v>4461</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1232,16 +1214,16 @@
         <v>0.36</v>
       </c>
       <c r="N14">
-        <v>38</v>
+        <v>38004.6</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.75">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1258,19 +1240,19 @@
         <v>0.4</v>
       </c>
       <c r="F15">
-        <v>56.2</v>
+        <v>56179.4</v>
       </c>
       <c r="G15">
         <v>0.54</v>
       </c>
       <c r="H15">
-        <v>75.599999999999994</v>
+        <v>75593.60000000001</v>
       </c>
       <c r="I15">
         <v>0.06</v>
       </c>
       <c r="J15">
-        <v>8.1999999999999993</v>
+        <v>8227</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1282,16 +1264,16 @@
         <v>0.6</v>
       </c>
       <c r="N15">
-        <v>83.8</v>
+        <v>83820.60000000001</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
       </c>
       <c r="P15">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.75">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1308,40 +1290,40 @@
         <v>0.39</v>
       </c>
       <c r="F16">
-        <v>37.5</v>
+        <v>37521.2</v>
       </c>
       <c r="G16">
         <v>0.59</v>
       </c>
       <c r="H16">
-        <v>57.1</v>
+        <v>57124.8</v>
       </c>
       <c r="I16">
         <v>0.01</v>
       </c>
       <c r="J16">
-        <v>1.2</v>
+        <v>1177.4</v>
       </c>
       <c r="K16">
         <v>0.01</v>
       </c>
       <c r="L16">
-        <v>0.8</v>
+        <v>776.6</v>
       </c>
       <c r="M16">
         <v>0.61</v>
       </c>
       <c r="N16">
-        <v>59.1</v>
+        <v>59078.8</v>
       </c>
       <c r="O16" t="s">
         <v>43</v>
       </c>
       <c r="P16">
-        <v>96.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.75">
+        <v>96600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1358,19 +1340,19 @@
         <v>0.4</v>
       </c>
       <c r="F17">
-        <v>39.799999999999997</v>
+        <v>39790.9</v>
       </c>
       <c r="G17">
         <v>0.52</v>
       </c>
       <c r="H17">
-        <v>52.1</v>
+        <v>52062.4</v>
       </c>
       <c r="I17">
         <v>0.08</v>
       </c>
       <c r="J17">
-        <v>7.5</v>
+        <v>7546.7</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1382,16 +1364,16 @@
         <v>0.6</v>
       </c>
       <c r="N17">
-        <v>59.6</v>
+        <v>59609.1</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
       </c>
       <c r="P17">
-        <v>99.399999999999991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.75">
+        <v>99400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1408,19 +1390,19 @@
         <v>0.36</v>
       </c>
       <c r="F18">
-        <v>32.299999999999997</v>
+        <v>32348.3</v>
       </c>
       <c r="G18">
         <v>0.62</v>
       </c>
       <c r="H18">
-        <v>56.8</v>
+        <v>56759.6</v>
       </c>
       <c r="I18">
         <v>0.02</v>
       </c>
       <c r="J18">
-        <v>1.9</v>
+        <v>1892.1</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1432,16 +1414,16 @@
         <v>0.64</v>
       </c>
       <c r="N18">
-        <v>58.7</v>
+        <v>58651.7</v>
       </c>
       <c r="O18" t="s">
         <v>43</v>
       </c>
       <c r="P18">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.75">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1458,13 +1440,13 @@
         <v>0.62</v>
       </c>
       <c r="F19">
-        <v>61.4</v>
+        <v>61423.4</v>
       </c>
       <c r="G19">
         <v>0.38</v>
       </c>
       <c r="H19">
-        <v>37.299999999999997</v>
+        <v>37276.6</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1482,16 +1464,16 @@
         <v>0.38</v>
       </c>
       <c r="N19">
-        <v>37.299999999999997</v>
+        <v>37276.6</v>
       </c>
       <c r="O19" t="s">
         <v>43</v>
       </c>
       <c r="P19">
-        <v>98.699999999999989</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.75">
+        <v>98700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1508,40 +1490,40 @@
         <v>0.59</v>
       </c>
       <c r="F20">
-        <v>61.4</v>
+        <v>61438.1</v>
       </c>
       <c r="G20">
         <v>0.34</v>
       </c>
       <c r="H20">
-        <v>35.700000000000003</v>
+        <v>35741.6</v>
       </c>
       <c r="I20">
         <v>0.06</v>
       </c>
       <c r="J20">
-        <v>5.9</v>
+        <v>5946.3</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>473.9</v>
       </c>
       <c r="M20">
         <v>0.41</v>
       </c>
       <c r="N20">
-        <v>42.2</v>
+        <v>42161.9</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
       </c>
       <c r="P20">
-        <v>103.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.75">
+        <v>103600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1555,22 +1537,22 @@
         <v>41</v>
       </c>
       <c r="E21">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F21">
-        <v>6.3</v>
+        <v>6306</v>
       </c>
       <c r="G21">
         <v>0.65</v>
       </c>
       <c r="H21">
-        <v>60.7</v>
+        <v>60684.8</v>
       </c>
       <c r="I21">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="J21">
-        <v>26.8</v>
+        <v>26809.1</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1582,16 +1564,16 @@
         <v>0.93</v>
       </c>
       <c r="N21">
-        <v>87.5</v>
+        <v>87494</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
       </c>
       <c r="P21">
-        <v>93.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.75">
+        <v>93800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1608,40 +1590,40 @@
         <v>0.23</v>
       </c>
       <c r="F22">
-        <v>23.8</v>
+        <v>23772.6</v>
       </c>
       <c r="G22">
         <v>0.75</v>
       </c>
       <c r="H22">
-        <v>76.3</v>
+        <v>76336.10000000001</v>
       </c>
       <c r="I22">
         <v>0.01</v>
       </c>
       <c r="J22">
-        <v>0.5</v>
+        <v>531.5</v>
       </c>
       <c r="K22">
         <v>0.01</v>
       </c>
       <c r="L22">
-        <v>0.9</v>
+        <v>859.7</v>
       </c>
       <c r="M22">
         <v>0.77</v>
       </c>
       <c r="N22">
-        <v>77.7</v>
+        <v>77727.39999999999</v>
       </c>
       <c r="O22" t="s">
         <v>43</v>
       </c>
       <c r="P22">
-        <v>101.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.75">
+        <v>101500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1658,13 +1640,13 @@
         <v>0.52</v>
       </c>
       <c r="F23">
-        <v>50.8</v>
+        <v>50809.5</v>
       </c>
       <c r="G23">
         <v>0.48</v>
       </c>
       <c r="H23">
-        <v>46.5</v>
+        <v>46490.5</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1682,16 +1664,16 @@
         <v>0.48</v>
       </c>
       <c r="N23">
-        <v>46.5</v>
+        <v>46490.5</v>
       </c>
       <c r="O23" t="s">
         <v>43</v>
       </c>
       <c r="P23">
-        <v>97.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.75">
+        <v>97300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1720,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>175</v>
+        <v>175000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1732,16 +1714,16 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>175</v>
+        <v>175000</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.75">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1758,13 +1740,13 @@
         <v>0.51</v>
       </c>
       <c r="F25">
-        <v>52.7</v>
+        <v>52657.8</v>
       </c>
       <c r="G25">
         <v>0.45</v>
       </c>
       <c r="H25">
-        <v>46.5</v>
+        <v>46457</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1776,19 +1758,19 @@
         <v>0.04</v>
       </c>
       <c r="L25">
-        <v>3.8</v>
+        <v>3785.2</v>
       </c>
       <c r="M25">
         <v>0.49</v>
       </c>
       <c r="N25">
-        <v>50.2</v>
+        <v>50242.2</v>
       </c>
       <c r="O25" t="s">
         <v>43</v>
       </c>
       <c r="P25">
-        <v>102.9</v>
+        <v>102900</v>
       </c>
     </row>
   </sheetData>
@@ -1797,14 +1779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +1839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1874,13 +1856,13 @@
         <v>0.15</v>
       </c>
       <c r="F2">
-        <v>6.6</v>
+        <v>6550.9</v>
       </c>
       <c r="G2">
         <v>0.66</v>
       </c>
       <c r="H2">
-        <v>29</v>
+        <v>29008.5</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1892,22 +1874,22 @@
         <v>0.19</v>
       </c>
       <c r="L2">
-        <v>8.1999999999999993</v>
+        <v>8240.700000000001</v>
       </c>
       <c r="M2">
         <v>0.85</v>
       </c>
       <c r="N2">
-        <v>37.200000000000003</v>
+        <v>37249.1</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
       </c>
       <c r="P2">
-        <v>43.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.75">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1924,19 +1906,19 @@
         <v>0.38</v>
       </c>
       <c r="F3">
-        <v>57.4</v>
+        <v>57443.1</v>
       </c>
       <c r="G3">
         <v>0.53</v>
       </c>
       <c r="H3">
-        <v>79.8</v>
+        <v>79757.39999999999</v>
       </c>
       <c r="I3">
         <v>0.09</v>
       </c>
       <c r="J3">
-        <v>12.8</v>
+        <v>12799.6</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1948,16 +1930,16 @@
         <v>0.62</v>
       </c>
       <c r="N3">
-        <v>92.6</v>
+        <v>92556.89999999999</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
       </c>
       <c r="P3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.75">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1974,40 +1956,40 @@
         <v>0.15</v>
       </c>
       <c r="F4">
-        <v>6.2</v>
+        <v>6186.7</v>
       </c>
       <c r="G4">
         <v>0.74</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>29963.5</v>
       </c>
       <c r="I4">
         <v>0.09</v>
       </c>
       <c r="J4">
-        <v>3.8</v>
+        <v>3841.1</v>
       </c>
       <c r="K4">
         <v>0.01</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>508.7</v>
       </c>
       <c r="M4">
         <v>0.85</v>
       </c>
       <c r="N4">
-        <v>34.299999999999997</v>
+        <v>34313.3</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
       </c>
       <c r="P4">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.75">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2030,13 +2012,13 @@
         <v>0.76</v>
       </c>
       <c r="H5">
-        <v>30.2</v>
+        <v>30216.5</v>
       </c>
       <c r="I5">
         <v>0.24</v>
       </c>
       <c r="J5">
-        <v>9.4</v>
+        <v>9383.5</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2048,16 +2030,16 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>39.6</v>
+        <v>39600</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
       </c>
       <c r="P5">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.75">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2074,19 +2056,19 @@
         <v>0.38</v>
       </c>
       <c r="F6">
-        <v>15.1</v>
+        <v>15094.9</v>
       </c>
       <c r="G6">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="H6">
-        <v>22.7</v>
+        <v>22674.5</v>
       </c>
       <c r="I6">
         <v>0.04</v>
       </c>
       <c r="J6">
-        <v>1.5</v>
+        <v>1530.6</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2098,16 +2080,16 @@
         <v>0.62</v>
       </c>
       <c r="N6">
-        <v>24.2</v>
+        <v>24205.1</v>
       </c>
       <c r="O6" t="s">
         <v>43</v>
       </c>
       <c r="P6">
-        <v>39.299999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
+        <v>39300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2124,40 +2106,40 @@
         <v>0.16</v>
       </c>
       <c r="F7">
-        <v>6.1</v>
+        <v>6076.1</v>
       </c>
       <c r="G7">
         <v>0.75</v>
       </c>
       <c r="H7">
-        <v>29.1</v>
+        <v>29146.5</v>
       </c>
       <c r="I7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J7">
-        <v>2.9</v>
+        <v>2865.4</v>
       </c>
       <c r="K7">
         <v>0.02</v>
       </c>
       <c r="L7">
-        <v>0.9</v>
+        <v>912</v>
       </c>
       <c r="M7">
         <v>0.84</v>
       </c>
       <c r="N7">
-        <v>32.9</v>
+        <v>32923.9</v>
       </c>
       <c r="O7" t="s">
         <v>43</v>
       </c>
       <c r="P7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.75">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2174,19 +2156,19 @@
         <v>0.61</v>
       </c>
       <c r="F8">
-        <v>45.7</v>
+        <v>45718.4</v>
       </c>
       <c r="G8">
         <v>0.19</v>
       </c>
       <c r="H8">
-        <v>14.1</v>
+        <v>14068.9</v>
       </c>
       <c r="I8">
         <v>0.2</v>
       </c>
       <c r="J8">
-        <v>15.2</v>
+        <v>15212.7</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2198,13 +2180,13 @@
         <v>0.39</v>
       </c>
       <c r="N8">
-        <v>29.3</v>
+        <v>29281.6</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
       </c>
       <c r="P8">
-        <v>75</v>
+        <v>75000</v>
       </c>
     </row>
   </sheetData>
@@ -2213,14 +2195,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2273,7 +2255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2305,7 +2287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2337,7 +2319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2369,7 +2351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2401,7 +2383,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2433,7 +2415,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2465,7 +2447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2497,7 +2479,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2517,7 +2499,7 @@
         <v>0.33</v>
       </c>
       <c r="I9">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="K9">
         <v>0.01</v>
@@ -2529,7 +2511,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2561,7 +2543,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2593,7 +2575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2619,13 +2601,13 @@
         <v>0.02</v>
       </c>
       <c r="M12">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2657,7 +2639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2689,7 +2671,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2703,7 +2685,7 @@
         <v>46</v>
       </c>
       <c r="E15">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G15">
         <v>0.93</v>
@@ -2721,7 +2703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2753,7 +2735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2785,7 +2767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>

--- a/output/severity_by_admin_and_pop_group.xlsx
+++ b/output/severity_by_admin_and_pop_group.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/pin-calculation-app/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_302CFC0DCEE6C1A13A2C9C107676E5C26D1EA6BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A7526AE-C337-4A0C-93C9-D7AE75C9F4BB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Host Community" sheetId="1" r:id="rId1"/>
     <sheet name="New IDPs" sheetId="2" r:id="rId2"/>
     <sheet name="Protracted IDPs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -162,8 +168,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,13 +232,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,7 +284,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -304,6 +318,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -338,9 +353,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -513,14 +529,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -590,7 +608,7 @@
         <v>0.35</v>
       </c>
       <c r="F2">
-        <v>35704.4</v>
+        <v>35704.400000000001</v>
       </c>
       <c r="G2">
         <v>0.25</v>
@@ -608,13 +626,13 @@
         <v>0.4</v>
       </c>
       <c r="L2">
-        <v>40748.2</v>
+        <v>40748.199999999997</v>
       </c>
       <c r="M2">
         <v>0.65</v>
       </c>
       <c r="N2">
-        <v>66495.60000000001</v>
+        <v>66495.600000000006</v>
       </c>
       <c r="O2" t="s">
         <v>42</v>
@@ -623,7 +641,7 @@
         <v>102200</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -673,7 +691,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -723,7 +741,7 @@
         <v>94500</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -746,7 +764,7 @@
         <v>0.71</v>
       </c>
       <c r="H5">
-        <v>65871.2</v>
+        <v>65871.199999999997</v>
       </c>
       <c r="I5">
         <v>0.09</v>
@@ -761,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="N5">
         <v>74636.3</v>
@@ -773,7 +791,7 @@
         <v>92400</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -793,10 +811,10 @@
         <v>61722.7</v>
       </c>
       <c r="G6">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H6">
-        <v>26632.4</v>
+        <v>26632.400000000001</v>
       </c>
       <c r="I6">
         <v>0.06</v>
@@ -814,7 +832,7 @@
         <v>0.35</v>
       </c>
       <c r="N6">
-        <v>33477.3</v>
+        <v>33477.300000000003</v>
       </c>
       <c r="O6" t="s">
         <v>43</v>
@@ -823,7 +841,7 @@
         <v>95200</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -846,7 +864,7 @@
         <v>0.35</v>
       </c>
       <c r="H7">
-        <v>37196.8</v>
+        <v>37196.800000000003</v>
       </c>
       <c r="I7">
         <v>0.03</v>
@@ -873,7 +891,7 @@
         <v>105700</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -896,13 +914,13 @@
         <v>0.93</v>
       </c>
       <c r="H8">
-        <v>90833.89999999999</v>
+        <v>90833.9</v>
       </c>
       <c r="I8">
         <v>0.05</v>
       </c>
       <c r="J8">
-        <v>4468.9</v>
+        <v>4468.8999999999996</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -923,7 +941,7 @@
         <v>98000</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -952,7 +970,7 @@
         <v>0.05</v>
       </c>
       <c r="J9">
-        <v>4874.9</v>
+        <v>4874.8999999999996</v>
       </c>
       <c r="K9">
         <v>0.03</v>
@@ -973,7 +991,7 @@
         <v>93100</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1002,7 +1020,7 @@
         <v>0.12</v>
       </c>
       <c r="J10">
-        <v>8515.700000000001</v>
+        <v>8515.7000000000007</v>
       </c>
       <c r="K10">
         <v>0.01</v>
@@ -1011,7 +1029,7 @@
         <v>929.9</v>
       </c>
       <c r="M10">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="N10">
         <v>40597.1</v>
@@ -1023,7 +1041,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1046,7 +1064,7 @@
         <v>0.44</v>
       </c>
       <c r="H11">
-        <v>40411.7</v>
+        <v>40411.699999999997</v>
       </c>
       <c r="I11">
         <v>0.02</v>
@@ -1073,7 +1091,7 @@
         <v>91700</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1090,13 +1108,13 @@
         <v>0.77</v>
       </c>
       <c r="F12">
-        <v>81274.89999999999</v>
+        <v>81274.899999999994</v>
       </c>
       <c r="G12">
         <v>0.22</v>
       </c>
       <c r="H12">
-        <v>22630.4</v>
+        <v>22630.400000000001</v>
       </c>
       <c r="I12">
         <v>0.01</v>
@@ -1123,7 +1141,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1164,7 +1182,7 @@
         <v>0.88</v>
       </c>
       <c r="N13">
-        <v>87949.89999999999</v>
+        <v>87949.9</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
@@ -1173,7 +1191,7 @@
         <v>100100</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1190,13 +1208,13 @@
         <v>0.64</v>
       </c>
       <c r="F14">
-        <v>66995.39999999999</v>
+        <v>66995.399999999994</v>
       </c>
       <c r="G14">
         <v>0.32</v>
       </c>
       <c r="H14">
-        <v>33543.6</v>
+        <v>33543.599999999999</v>
       </c>
       <c r="I14">
         <v>0.04</v>
@@ -1223,7 +1241,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1246,7 +1264,7 @@
         <v>0.54</v>
       </c>
       <c r="H15">
-        <v>75593.60000000001</v>
+        <v>75593.600000000006</v>
       </c>
       <c r="I15">
         <v>0.06</v>
@@ -1264,7 +1282,7 @@
         <v>0.6</v>
       </c>
       <c r="N15">
-        <v>83820.60000000001</v>
+        <v>83820.600000000006</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
@@ -1273,7 +1291,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1290,19 +1308,19 @@
         <v>0.39</v>
       </c>
       <c r="F16">
-        <v>37521.2</v>
+        <v>37521.199999999997</v>
       </c>
       <c r="G16">
         <v>0.59</v>
       </c>
       <c r="H16">
-        <v>57124.8</v>
+        <v>57124.800000000003</v>
       </c>
       <c r="I16">
         <v>0.01</v>
       </c>
       <c r="J16">
-        <v>1177.4</v>
+        <v>1177.4000000000001</v>
       </c>
       <c r="K16">
         <v>0.01</v>
@@ -1323,7 +1341,7 @@
         <v>96600</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1346,7 +1364,7 @@
         <v>0.52</v>
       </c>
       <c r="H17">
-        <v>52062.4</v>
+        <v>52062.400000000001</v>
       </c>
       <c r="I17">
         <v>0.08</v>
@@ -1373,7 +1391,7 @@
         <v>99400</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1423,7 +1441,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1473,7 +1491,7 @@
         <v>98700</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1496,7 +1514,7 @@
         <v>0.34</v>
       </c>
       <c r="H20">
-        <v>35741.6</v>
+        <v>35741.599999999999</v>
       </c>
       <c r="I20">
         <v>0.06</v>
@@ -1523,7 +1541,7 @@
         <v>103600</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1537,7 +1555,7 @@
         <v>41</v>
       </c>
       <c r="E21">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F21">
         <v>6306</v>
@@ -1546,10 +1564,10 @@
         <v>0.65</v>
       </c>
       <c r="H21">
-        <v>60684.8</v>
+        <v>60684.800000000003</v>
       </c>
       <c r="I21">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J21">
         <v>26809.1</v>
@@ -1573,7 +1591,7 @@
         <v>93800</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1596,7 +1614,7 @@
         <v>0.75</v>
       </c>
       <c r="H22">
-        <v>76336.10000000001</v>
+        <v>76336.100000000006</v>
       </c>
       <c r="I22">
         <v>0.01</v>
@@ -1614,7 +1632,7 @@
         <v>0.77</v>
       </c>
       <c r="N22">
-        <v>77727.39999999999</v>
+        <v>77727.399999999994</v>
       </c>
       <c r="O22" t="s">
         <v>43</v>
@@ -1623,7 +1641,7 @@
         <v>101500</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1673,7 +1691,7 @@
         <v>97300</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1723,7 +1741,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1779,14 +1797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1874,7 +1892,7 @@
         <v>0.19</v>
       </c>
       <c r="L2">
-        <v>8240.700000000001</v>
+        <v>8240.7000000000007</v>
       </c>
       <c r="M2">
         <v>0.85</v>
@@ -1889,7 +1907,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1912,7 +1930,7 @@
         <v>0.53</v>
       </c>
       <c r="H3">
-        <v>79757.39999999999</v>
+        <v>79757.399999999994</v>
       </c>
       <c r="I3">
         <v>0.09</v>
@@ -1930,7 +1948,7 @@
         <v>0.62</v>
       </c>
       <c r="N3">
-        <v>92556.89999999999</v>
+        <v>92556.9</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
@@ -1939,7 +1957,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1980,7 +1998,7 @@
         <v>0.85</v>
       </c>
       <c r="N4">
-        <v>34313.3</v>
+        <v>34313.300000000003</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
@@ -1989,7 +2007,7 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2039,7 +2057,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2059,7 +2077,7 @@
         <v>15094.9</v>
       </c>
       <c r="G6">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H6">
         <v>22674.5</v>
@@ -2089,7 +2107,7 @@
         <v>39300</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2115,7 +2133,7 @@
         <v>29146.5</v>
       </c>
       <c r="I7">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J7">
         <v>2865.4</v>
@@ -2139,7 +2157,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2156,7 +2174,7 @@
         <v>0.61</v>
       </c>
       <c r="F8">
-        <v>45718.4</v>
+        <v>45718.400000000001</v>
       </c>
       <c r="G8">
         <v>0.19</v>
@@ -2180,7 +2198,7 @@
         <v>0.39</v>
       </c>
       <c r="N8">
-        <v>29281.6</v>
+        <v>29281.599999999999</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
@@ -2195,14 +2213,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2255,7 +2273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2287,7 +2305,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2319,7 +2337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2383,7 +2401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2415,7 +2433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2447,7 +2465,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2479,7 +2497,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2499,7 +2517,7 @@
         <v>0.33</v>
       </c>
       <c r="I9">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K9">
         <v>0.01</v>
@@ -2511,7 +2529,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2543,7 +2561,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2575,7 +2593,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2601,13 +2619,13 @@
         <v>0.02</v>
       </c>
       <c r="M12">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2639,7 +2657,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2671,7 +2689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2685,7 +2703,7 @@
         <v>46</v>
       </c>
       <c r="E15">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G15">
         <v>0.93</v>
@@ -2703,7 +2721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2735,7 +2753,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2767,7 +2785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A18" s="1">
         <v>16</v>
       </c>
